--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="16" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,6 +29,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>INAP-QA</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Agregar el Usuario con el que da acceso a la plataforma. 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADOLFO ANGEL GARCIA</author>
@@ -65,9 +100,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
   <si>
-    <t xml:space="preserve">Tester: Iris Lechuga </t>
-  </si>
-  <si>
     <t>Ambiente QA</t>
   </si>
   <si>
@@ -104,18 +136,6 @@
     <t>Pendiente</t>
   </si>
   <si>
-    <t xml:space="preserve">Exportar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generación correcta </t>
-  </si>
-  <si>
-    <t>Filtrado por página</t>
-  </si>
-  <si>
-    <t>Se realiza muestran correctamente los número de registros consultados</t>
-  </si>
-  <si>
     <t>Busqueda correcta por el filtro seleccionado</t>
   </si>
   <si>
@@ -398,14 +418,29 @@
     <t xml:space="preserve">Ingresar  Correcta </t>
   </si>
   <si>
-    <t xml:space="preserve">Despliegue correcto de subménus </t>
+    <t xml:space="preserve">Usuario: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recibir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega de Información al Usuario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceso al menú principal </t>
+  </si>
+  <si>
+    <t>Permite ejecutar cualquiera de las aplicaciones de la plataforma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permite ir  al menú principal de la aplicación </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +499,19 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -807,6 +855,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -858,15 +915,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="2" builtinId="40"/>
@@ -5714,34 +5762,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -5787,8 +5808,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -5887,6 +5908,33 @@
     </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -6161,13 +6209,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:J281"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6185,105 +6233,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="A1" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="21" t="s">
+      <c r="A3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+    </row>
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="C6" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>10</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -6291,22 +6339,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6315,20 +6363,20 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -6337,19 +6385,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -6358,19 +6406,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -6379,37 +6427,37 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>111</v>
@@ -6421,19 +6469,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -6442,19 +6490,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -6463,19 +6511,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -6484,19 +6532,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -6505,19 +6553,19 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1"/>
     </row>
@@ -6526,19 +6574,19 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J18" s="1"/>
     </row>
@@ -6547,19 +6595,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -6568,19 +6616,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -6589,19 +6637,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -6610,19 +6658,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -6631,19 +6679,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -6652,19 +6700,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -6673,19 +6721,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -6694,19 +6742,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -6715,19 +6763,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" t="s">
         <v>46</v>
       </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" t="s">
-        <v>51</v>
-      </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -6736,19 +6784,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -6757,20 +6805,20 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H29"/>
       <c r="I29" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -6779,20 +6827,20 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -6801,19 +6849,19 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -6822,19 +6870,19 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I32" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -6843,19 +6891,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -6864,19 +6912,19 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J34" s="1"/>
     </row>
@@ -6885,19 +6933,19 @@
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J35" s="1"/>
     </row>
@@ -6906,19 +6954,19 @@
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -6927,19 +6975,19 @@
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -6948,19 +6996,19 @@
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -6969,19 +7017,19 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="s">
-        <v>58</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -6990,19 +7038,19 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -7011,19 +7059,19 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -7032,19 +7080,19 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -7053,19 +7101,19 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
+        <v>53</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I43" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -7074,19 +7122,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -7095,19 +7143,19 @@
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I45" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -7116,19 +7164,19 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -7137,19 +7185,19 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -7157,19 +7205,19 @@
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -7177,19 +7225,19 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -7198,19 +7246,19 @@
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C50" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -7219,19 +7267,19 @@
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -7240,19 +7288,19 @@
         <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C52" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J52" s="1"/>
     </row>
@@ -7261,19 +7309,19 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J53" s="1"/>
     </row>
@@ -7282,19 +7330,19 @@
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D54" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="J54" s="1"/>
     </row>
@@ -7303,19 +7351,19 @@
         <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -7324,19 +7372,19 @@
         <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
+        <v>86</v>
+      </c>
+      <c r="D56" t="s">
+        <v>60</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D56" t="s">
-        <v>65</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="I56" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -7345,19 +7393,19 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J57" s="1"/>
     </row>
@@ -7366,19 +7414,19 @@
         <v>52</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D58" t="s">
+        <v>60</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C58" t="s">
-        <v>42</v>
-      </c>
-      <c r="D58" t="s">
-        <v>65</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J58" s="1"/>
     </row>
@@ -7387,19 +7435,19 @@
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I59" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" t="s">
-        <v>65</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -7408,19 +7456,19 @@
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -7429,19 +7477,19 @@
         <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>60</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C61" t="s">
-        <v>45</v>
-      </c>
-      <c r="D61" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -7450,19 +7498,19 @@
         <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -7471,19 +7519,19 @@
         <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -7492,19 +7540,19 @@
         <v>58</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
+        <v>41</v>
+      </c>
+      <c r="D64" t="s">
+        <v>60</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D64" t="s">
-        <v>65</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I64" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J64" s="1"/>
     </row>
@@ -7513,19 +7561,19 @@
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -7534,19 +7582,19 @@
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="J66" s="1"/>
     </row>
@@ -7555,19 +7603,19 @@
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F67" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -7576,19 +7624,19 @@
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C68" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -7597,19 +7645,19 @@
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C69" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
+        <v>60</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -7618,19 +7666,19 @@
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J70" s="1"/>
     </row>
@@ -8248,12 +8296,12 @@
     </row>
     <row r="280" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E280" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E281" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8271,17 +8319,24 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G282</xm:sqref>
+          <xm:sqref>G7:G8 G13:G282</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx]Datos'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G9:G12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8313,15 +8368,15 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
@@ -8329,7 +8384,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B5" s="9">
         <v>2</v>
@@ -8337,7 +8392,7 @@
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
@@ -8346,94 +8401,94 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="34"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="22"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="37"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="22"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="37"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="39"/>
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="37"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
+      <c r="A51" s="20"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="22"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="39"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="22"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="39"/>
+      <c r="A54" s="20"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="39"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="22"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="39"/>
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="22"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="37"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="39"/>
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="22"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="37"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="39"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="22"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="37"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="37"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="39"/>
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="37"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="39"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="22"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="37"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="39"/>
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="22"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="37"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="39"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
+      <c r="A64" s="23"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8458,22 +8513,22 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
@@ -16,9 +16,12 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -172,9 +175,6 @@
     <t xml:space="preserve">Proyecto: Sistema del Presupueso Basado en Resultados </t>
   </si>
   <si>
-    <t>Ingresar sitio wed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ingresar las Credenciales </t>
   </si>
   <si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t xml:space="preserve">Permite ir  al menú principal de la aplicación </t>
+  </si>
+  <si>
+    <t>Ingresar sitio web</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1042,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1694,7 +1696,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2394,6 +2395,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datos"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45085.512780324076" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="276">
   <cacheSource type="worksheet">
@@ -5762,7 +5776,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -5809,7 +5823,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -5920,7 +5934,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
@@ -6215,7 +6229,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6266,7 +6280,7 @@
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
       <c r="E3" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="31"/>
@@ -6293,7 +6307,7 @@
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
@@ -6339,22 +6353,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -6363,20 +6377,20 @@
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J8" s="1"/>
     </row>
@@ -6385,13 +6399,13 @@
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>20</v>
@@ -6406,19 +6420,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -6427,19 +6441,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -6448,19 +6462,19 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -6469,19 +6483,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -6490,19 +6504,19 @@
         <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -6511,19 +6525,19 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1"/>
     </row>
@@ -6532,19 +6546,19 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="I16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J16" s="1"/>
     </row>
@@ -6553,16 +6567,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>12</v>
@@ -6574,16 +6588,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
@@ -6595,19 +6609,19 @@
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="J19" s="1"/>
     </row>
@@ -6616,19 +6630,19 @@
         <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="1"/>
     </row>
@@ -6637,19 +6651,19 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J21" s="1"/>
     </row>
@@ -6658,19 +6672,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" s="1"/>
     </row>
@@ -6679,19 +6693,19 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" s="1"/>
     </row>
@@ -6700,19 +6714,19 @@
         <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J24" s="1"/>
     </row>
@@ -6721,19 +6735,19 @@
         <v>19</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J25" s="1"/>
     </row>
@@ -6742,19 +6756,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="1"/>
     </row>
@@ -6763,19 +6777,19 @@
         <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1"/>
     </row>
@@ -6784,19 +6798,19 @@
         <v>22</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="J28" s="1"/>
     </row>
@@ -6805,20 +6819,20 @@
         <v>23</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H29"/>
       <c r="I29" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J29" s="1"/>
     </row>
@@ -6827,20 +6841,20 @@
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J30" s="1"/>
     </row>
@@ -6849,19 +6863,19 @@
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="1"/>
     </row>
@@ -6870,19 +6884,19 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J32" s="1"/>
     </row>
@@ -6891,19 +6905,19 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="I33" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J33" s="1"/>
     </row>
@@ -6912,16 +6926,16 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>12</v>
@@ -6933,16 +6947,16 @@
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
@@ -6954,19 +6968,19 @@
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J36" s="1"/>
     </row>
@@ -6975,19 +6989,19 @@
         <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="I37" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J37" s="1"/>
     </row>
@@ -6996,19 +7010,19 @@
         <v>32</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J38" s="1"/>
     </row>
@@ -7017,19 +7031,19 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J39" s="1"/>
     </row>
@@ -7038,19 +7052,19 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J40" s="1"/>
     </row>
@@ -7059,19 +7073,19 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J41" s="1"/>
     </row>
@@ -7080,19 +7094,19 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J42" s="1"/>
     </row>
@@ -7101,19 +7115,19 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" s="1"/>
     </row>
@@ -7122,19 +7136,19 @@
         <v>38</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J44" s="1"/>
     </row>
@@ -7143,19 +7157,19 @@
         <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J45" s="1"/>
     </row>
@@ -7164,19 +7178,19 @@
         <v>40</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J46" s="1"/>
     </row>
@@ -7185,19 +7199,19 @@
         <v>41</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -7205,19 +7219,19 @@
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -7225,19 +7239,19 @@
         <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J49" s="1"/>
     </row>
@@ -7246,19 +7260,19 @@
         <v>44</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J50" s="1"/>
     </row>
@@ -7267,19 +7281,19 @@
         <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J51" s="1"/>
     </row>
@@ -7288,16 +7302,16 @@
         <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>60</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>12</v>
@@ -7309,16 +7323,16 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>12</v>
@@ -7330,19 +7344,19 @@
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="J54" s="1"/>
     </row>
@@ -7351,19 +7365,19 @@
         <v>49</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J55" s="1"/>
     </row>
@@ -7372,19 +7386,19 @@
         <v>50</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F56" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="J56" s="1"/>
     </row>
@@ -7393,19 +7407,19 @@
         <v>51</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J57" s="1"/>
     </row>
@@ -7414,19 +7428,19 @@
         <v>52</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J58" s="1"/>
     </row>
@@ -7435,19 +7449,19 @@
         <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" s="1"/>
     </row>
@@ -7456,19 +7470,19 @@
         <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J60" s="1"/>
     </row>
@@ -7477,19 +7491,19 @@
         <v>55</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J61" s="1"/>
     </row>
@@ -7498,19 +7512,19 @@
         <v>56</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J62" s="1"/>
     </row>
@@ -7519,19 +7533,19 @@
         <v>57</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" t="s">
+        <v>59</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D63" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="I63" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J63" s="1"/>
     </row>
@@ -7540,19 +7554,19 @@
         <v>58</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J64" s="1"/>
     </row>
@@ -7561,19 +7575,19 @@
         <v>59</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J65" s="1"/>
     </row>
@@ -7582,19 +7596,19 @@
         <v>60</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="I66" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J66" s="1"/>
     </row>
@@ -7603,19 +7617,19 @@
         <v>61</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D67" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J67" s="1"/>
     </row>
@@ -7624,19 +7638,19 @@
         <v>62</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J68" s="1"/>
     </row>
@@ -7645,19 +7659,19 @@
         <v>63</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J69" s="1"/>
     </row>
@@ -7666,19 +7680,19 @@
         <v>64</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J70" s="1"/>
     </row>

--- a/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
+++ b/SIEDNL (PDR)/ENTREGABLES/Matriz de Pruebas/Matris para Usuarios/Matiz de Pruebas SIEDNL - Meta Anual.xlsx
@@ -21,7 +21,7 @@
   </externalReferences>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,6 +58,106 @@
           </rPr>
           <t xml:space="preserve">
 Agregar el Usuario con el que da acceso a la plataforma. 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opción se habilita cuando la MIR haya sido Autorizada
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opció se habilita una ves que la Meta Anual haya pasado a revisión por el capturador 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F54" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opción se habilita una ves que haya  el verificador la haya autorizado y este en estatus esperando autorización 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F56" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>INAP-QA:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Esta opción se habilita una ves que este autorizada la Meta Anual 
 </t>
         </r>
       </text>
@@ -101,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="112">
   <si>
     <t>Ambiente QA</t>
   </si>
@@ -163,12 +263,6 @@
     <t>Error</t>
   </si>
   <si>
-    <t xml:space="preserve">Columnas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtrado de columnas seleccionadas </t>
-  </si>
-  <si>
     <t>Matriz de Pruebas SIEDNL</t>
   </si>
   <si>
@@ -271,9 +365,6 @@
     <t xml:space="preserve">Opciones Comentarios </t>
   </si>
   <si>
-    <t xml:space="preserve">Editar </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancelar </t>
   </si>
   <si>
@@ -304,9 +395,6 @@
     <t xml:space="preserve">Cancela registro </t>
   </si>
   <si>
-    <t xml:space="preserve">Edita el registro da pauta para enviar a usuarios correspondientes para autorización </t>
-  </si>
-  <si>
     <t xml:space="preserve">Guarda como Borrador </t>
   </si>
   <si>
@@ -346,9 +434,6 @@
     <t xml:space="preserve">Filtro Por Estado de la Meta Anual </t>
   </si>
   <si>
-    <t xml:space="preserve">Meta Anual / Opciones / Comentarios </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir visualizar, añadir y cancelar coemtarios </t>
   </si>
   <si>
@@ -361,15 +446,9 @@
     <t xml:space="preserve">Inicio / Meta Anual </t>
   </si>
   <si>
-    <t>Meta Anual / Opciones / Registra Meta Anual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Confirmación Metal Anual enviada a autorización </t>
   </si>
   <si>
-    <t xml:space="preserve">Opciones Registrar Meta Anual </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permitir dar acceso al llenado de la información  correspondiente para la Meta Anual </t>
   </si>
   <si>
@@ -437,13 +516,140 @@
   </si>
   <si>
     <t>Ingresar sitio web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingresar a la plataforma correctamente </t>
+  </si>
+  <si>
+    <r>
+      <t>Meta Anual / Opciones /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Comentarios </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meta Anual / Opciones / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comentarios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meta Anual / Opciones / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Meta Anual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Meta Anual / Opciones / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Registrar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Meta Anual</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Opciones /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Registrar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Meta Anual </t>
+    </r>
+  </si>
+  <si>
+    <t>Comentarios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,6 +721,23 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -824,7 +1047,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -918,13 +1141,20 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Énfasis3" xfId="2" builtinId="40"/>
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2399,10 +2629,14 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Ficha Técnica"/>
+      <sheetName val="GRAFICOS"/>
       <sheetName val="Datos"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2411,7 +2645,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="INAP-QA" refreshedDate="45085.512780324076" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="276">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A6:J1048576" sheet="Meta Anual"/>
+    <worksheetSource ref="A6:K1048576" sheet="Meta Anual"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="N° Caso" numFmtId="0">
@@ -5776,7 +6010,34 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:A25" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -5822,8 +6083,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" showAll="0"/>
@@ -5933,46 +6194,20 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
-  <location ref="A47:C64" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:J258" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" headerRowCellStyle="60% - Énfasis3">
-  <autoFilter ref="A6:J258"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="N° Caso"/>
-    <tableColumn id="2" name="Menús" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabla2" displayName="Tabla2" ref="A6:K257" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" headerRowCellStyle="60% - Énfasis3">
+  <autoFilter ref="A6:K257"/>
+  <tableColumns count="11">
+    <tableColumn id="1" name="N° Caso" dataDxfId="0"/>
+    <tableColumn id="2" name="Menús" dataDxfId="5"/>
     <tableColumn id="3" name="Submenú"/>
     <tableColumn id="4" name="Perfil"/>
     <tableColumn id="5" name="Usuario "/>
-    <tableColumn id="6" name="Acción" dataDxfId="2"/>
+    <tableColumn id="6" name="Acción" dataDxfId="4"/>
     <tableColumn id="7" name="Estatus de Prueba"/>
-    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="1"/>
-    <tableColumn id="9" name="Resultado Esperado" dataDxfId="0"/>
+    <tableColumn id="8" name="Resultado Obtenido" dataDxfId="3"/>
+    <tableColumn id="9" name="Resultado Esperado" dataDxfId="2"/>
+    <tableColumn id="10" name="Comentarios" dataDxfId="1"/>
     <tableColumn id="14" name="Fecha "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6225,30 +6460,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:J281"/>
+  <dimension ref="A1:K280"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.875" style="43" customWidth="1"/>
     <col min="2" max="2" width="24.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.25" customWidth="1"/>
     <col min="8" max="8" width="35.25" style="2" customWidth="1"/>
-    <col min="9" max="9" width="33.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="33.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -6259,8 +6494,9 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K1" s="29"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -6271,24 +6507,26 @@
       <c r="H2" s="29"/>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
       <c r="D3" s="34"/>
       <c r="E3" s="30" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
       <c r="J3" s="31"/>
-    </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="31"/>
+    </row>
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="35"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -6299,15 +6537,16 @@
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
       <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="K4" s="31"/>
+    </row>
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="27"/>
       <c r="C5" s="28"/>
       <c r="D5" s="38" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E5" s="39"/>
       <c r="F5" s="40"/>
@@ -6315,8 +6554,9 @@
       <c r="H5" s="42"/>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+      <c r="K5" s="42"/>
+    </row>
+    <row r="6" spans="1:11" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>1</v>
       </c>
@@ -6344,1989 +6584,1974 @@
       <c r="I6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="43">
         <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="43">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A9">
+        <v>97</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
         <v>3</v>
       </c>
       <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="43">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A11" s="43">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A12" s="43">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A13" s="43">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="43">
+        <v>9</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" s="43">
+        <v>10</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="I16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A17" s="43">
+        <v>11</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>11</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="43">
         <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="43">
         <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A20" s="43">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="43">
+        <v>15</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D19" t="s">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="43">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A23" s="43">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="43">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="43">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="43">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="43">
+        <v>21</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="43">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
         <v>46</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>14</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>15</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>17</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>18</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>19</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>21</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" t="s">
-        <v>45</v>
-      </c>
-      <c r="I27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>22</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>23</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" t="s">
-        <v>48</v>
       </c>
       <c r="H29"/>
       <c r="I29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30">
+        <v>59</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="43">
         <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>63</v>
-      </c>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31">
+        <v>60</v>
+      </c>
+      <c r="J30"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="43">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A32" s="43">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="43">
+        <v>27</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
         <v>50</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="F33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34" s="43">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>26</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>28</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
       <c r="F34" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35" s="43">
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="43">
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="43">
+        <v>31</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="43">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C36" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A39" s="43">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40" s="43">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A41" s="43">
+        <v>35</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42" s="43">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="43">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="43">
+        <v>38</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A45" s="43">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="43">
+        <v>40</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="43">
+        <v>41</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="43">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="43">
+        <v>43</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="43">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I50" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="I36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>31</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>32</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>33</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>34</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>35</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="2" t="s">
+      <c r="J50" s="16"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="43">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" t="s">
+        <v>56</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>37</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>38</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C44" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>39</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>40</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>41</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" t="s">
-        <v>48</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>42</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" t="s">
-        <v>49</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>43</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" t="s">
-        <v>40</v>
-      </c>
-      <c r="D49" t="s">
-        <v>52</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>44</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>45</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="43">
         <v>46</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="43">
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="43">
         <v>48</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" t="s">
+        <v>80</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="43">
+        <v>49</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56" s="43">
+        <v>50</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="43">
+        <v>52</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C54" t="s">
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="43">
+        <v>53</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" t="s">
+        <v>56</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="43">
+        <v>54</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="43">
+        <v>55</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>37</v>
+      </c>
+      <c r="D60" t="s">
+        <v>56</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="43">
+        <v>56</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>56</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="43">
+        <v>57</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>56</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="43">
+        <v>58</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="43">
+        <v>59</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>56</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D54" t="s">
-        <v>59</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="43">
+        <v>60</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>56</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="43">
+        <v>61</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="43">
+        <v>62</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="43">
+        <v>63</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="43">
+        <v>64</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>50</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" t="s">
-        <v>59</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>51</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" t="s">
-        <v>59</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>52</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" t="s">
-        <v>59</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>53</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D59" t="s">
-        <v>59</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>54</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" t="s">
-        <v>38</v>
-      </c>
-      <c r="D60" t="s">
-        <v>59</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>55</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" t="s">
-        <v>39</v>
-      </c>
-      <c r="D61" t="s">
-        <v>59</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>56</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>59</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>57</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" t="s">
-        <v>40</v>
-      </c>
-      <c r="D63" t="s">
-        <v>59</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>58</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="s">
-        <v>40</v>
-      </c>
-      <c r="D64" t="s">
-        <v>59</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>59</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" t="s">
-        <v>40</v>
-      </c>
-      <c r="D65" t="s">
-        <v>59</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>60</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>61</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" t="s">
-        <v>59</v>
-      </c>
-      <c r="F67" t="s">
-        <v>48</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>62</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" t="s">
-        <v>40</v>
-      </c>
-      <c r="D68" t="s">
-        <v>59</v>
-      </c>
-      <c r="F68" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>63</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" t="s">
-        <v>59</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="I69" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>64</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" t="s">
-        <v>40</v>
-      </c>
-      <c r="D70" t="s">
-        <v>59</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J154" s="1"/>
-    </row>
-    <row r="155" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J155" s="1"/>
-    </row>
-    <row r="156" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J157" s="1"/>
-    </row>
-    <row r="158" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J158" s="1"/>
-    </row>
-    <row r="159" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J162" s="1"/>
-    </row>
-    <row r="163" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J164" s="1"/>
-    </row>
-    <row r="165" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J165" s="1"/>
-    </row>
-    <row r="166" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J174" s="1"/>
-    </row>
-    <row r="175" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J176" s="1"/>
-    </row>
-    <row r="177" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J179" s="1"/>
-    </row>
-    <row r="180" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J180" s="1"/>
-    </row>
-    <row r="181" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J181" s="1"/>
-    </row>
-    <row r="182" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J182" s="1"/>
-    </row>
-    <row r="183" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J183" s="1"/>
-    </row>
-    <row r="184" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J184" s="1"/>
-    </row>
-    <row r="185" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J185" s="1"/>
-    </row>
-    <row r="186" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J186" s="1"/>
-    </row>
-    <row r="187" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J187" s="1"/>
-    </row>
-    <row r="188" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J188" s="1"/>
-    </row>
-    <row r="189" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J189" s="1"/>
-    </row>
-    <row r="190" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J190" s="1"/>
-    </row>
-    <row r="191" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J191" s="1"/>
-    </row>
-    <row r="192" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J192" s="1"/>
-    </row>
-    <row r="193" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J193" s="1"/>
-    </row>
-    <row r="194" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J194" s="1"/>
-    </row>
-    <row r="195" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J195" s="1"/>
-    </row>
-    <row r="196" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J196" s="1"/>
-    </row>
-    <row r="197" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J197" s="1"/>
-    </row>
-    <row r="198" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J198" s="1"/>
-    </row>
-    <row r="199" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J199" s="1"/>
-    </row>
-    <row r="200" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J200" s="1"/>
-    </row>
-    <row r="201" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J201" s="1"/>
-    </row>
-    <row r="202" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J202" s="1"/>
-    </row>
-    <row r="203" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J203" s="1"/>
-    </row>
-    <row r="204" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J204" s="1"/>
-    </row>
-    <row r="205" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J205" s="1"/>
-    </row>
-    <row r="206" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J206" s="1"/>
-    </row>
-    <row r="207" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J207" s="1"/>
-    </row>
-    <row r="208" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J208" s="1"/>
-    </row>
-    <row r="209" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J209" s="1"/>
-    </row>
-    <row r="210" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J210" s="1"/>
-    </row>
-    <row r="211" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J211" s="1"/>
-    </row>
-    <row r="212" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J212" s="1"/>
-    </row>
-    <row r="213" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J213" s="1"/>
-    </row>
-    <row r="214" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J214" s="1"/>
-    </row>
-    <row r="215" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J215" s="1"/>
-    </row>
-    <row r="216" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J216" s="1"/>
-    </row>
-    <row r="217" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J217" s="1"/>
-    </row>
-    <row r="218" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J218" s="1"/>
-    </row>
-    <row r="219" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J219" s="1"/>
-    </row>
-    <row r="220" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J220" s="1"/>
-    </row>
-    <row r="221" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J221" s="1"/>
-    </row>
-    <row r="222" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J222" s="1"/>
-    </row>
-    <row r="223" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J223" s="1"/>
-    </row>
-    <row r="224" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J224" s="1"/>
-    </row>
-    <row r="225" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J225" s="1"/>
-    </row>
-    <row r="226" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J226" s="1"/>
-    </row>
-    <row r="227" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J227" s="1"/>
-    </row>
-    <row r="228" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J228" s="1"/>
-    </row>
-    <row r="229" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J229" s="1"/>
-    </row>
-    <row r="230" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J230" s="1"/>
-    </row>
-    <row r="231" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J231" s="1"/>
-    </row>
-    <row r="232" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J232" s="1"/>
-    </row>
-    <row r="233" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J233" s="1"/>
-    </row>
-    <row r="234" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J234" s="1"/>
-    </row>
-    <row r="235" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J235" s="1"/>
-    </row>
-    <row r="236" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J236" s="1"/>
-    </row>
-    <row r="237" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J237" s="1"/>
-    </row>
-    <row r="238" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J238" s="1"/>
-    </row>
-    <row r="239" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J239" s="1"/>
-    </row>
-    <row r="240" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J240" s="1"/>
-    </row>
-    <row r="241" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J241" s="1"/>
-    </row>
-    <row r="242" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J242" s="1"/>
-    </row>
-    <row r="243" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J243" s="1"/>
-    </row>
-    <row r="244" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J244" s="1"/>
-    </row>
-    <row r="245" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J245" s="1"/>
-    </row>
-    <row r="246" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J246" s="1"/>
-    </row>
-    <row r="247" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J247" s="1"/>
-    </row>
-    <row r="248" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J248" s="1"/>
-    </row>
-    <row r="249" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J249" s="1"/>
-    </row>
-    <row r="250" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J250" s="1"/>
-    </row>
-    <row r="251" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J251" s="1"/>
-    </row>
-    <row r="252" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J252" s="1"/>
-    </row>
-    <row r="253" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J253" s="1"/>
-    </row>
-    <row r="254" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J254" s="1"/>
-    </row>
-    <row r="255" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J255" s="1"/>
-    </row>
-    <row r="259" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J259" s="1"/>
-    </row>
-    <row r="260" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J260" s="1"/>
-    </row>
-    <row r="261" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J261" s="1"/>
-    </row>
-    <row r="262" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J262" s="1"/>
-    </row>
-    <row r="263" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J263" s="1"/>
-    </row>
-    <row r="264" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J264" s="1"/>
-    </row>
-    <row r="267" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J267" s="1"/>
-    </row>
-    <row r="268" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J268" s="1"/>
-    </row>
-    <row r="269" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J269" s="1"/>
-    </row>
-    <row r="270" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J270" s="1"/>
-    </row>
-    <row r="271" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J271" s="1"/>
-    </row>
-    <row r="272" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J272" s="1"/>
-    </row>
-    <row r="273" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J273" s="1"/>
-    </row>
-    <row r="274" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J274" s="1"/>
-    </row>
-    <row r="275" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J275" s="1"/>
-    </row>
-    <row r="276" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J276" s="1"/>
-    </row>
-    <row r="277" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J277" s="1"/>
-    </row>
-    <row r="278" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J278" s="1"/>
-    </row>
-    <row r="279" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="J279" s="1"/>
-    </row>
-    <row r="280" spans="5:10" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K167" s="1"/>
+    </row>
+    <row r="168" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K168" s="1"/>
+    </row>
+    <row r="169" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K169" s="1"/>
+    </row>
+    <row r="170" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K170" s="1"/>
+    </row>
+    <row r="171" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K171" s="1"/>
+    </row>
+    <row r="172" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K172" s="1"/>
+    </row>
+    <row r="173" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K173" s="1"/>
+    </row>
+    <row r="174" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K174" s="1"/>
+    </row>
+    <row r="175" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K175" s="1"/>
+    </row>
+    <row r="176" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K176" s="1"/>
+    </row>
+    <row r="177" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K177" s="1"/>
+    </row>
+    <row r="178" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K178" s="1"/>
+    </row>
+    <row r="179" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K179" s="1"/>
+    </row>
+    <row r="180" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K180" s="1"/>
+    </row>
+    <row r="181" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K181" s="1"/>
+    </row>
+    <row r="182" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K182" s="1"/>
+    </row>
+    <row r="183" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K183" s="1"/>
+    </row>
+    <row r="184" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K184" s="1"/>
+    </row>
+    <row r="185" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K185" s="1"/>
+    </row>
+    <row r="186" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K186" s="1"/>
+    </row>
+    <row r="187" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K187" s="1"/>
+    </row>
+    <row r="188" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K188" s="1"/>
+    </row>
+    <row r="189" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K189" s="1"/>
+    </row>
+    <row r="190" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K190" s="1"/>
+    </row>
+    <row r="191" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K191" s="1"/>
+    </row>
+    <row r="192" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K192" s="1"/>
+    </row>
+    <row r="193" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K193" s="1"/>
+    </row>
+    <row r="194" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K194" s="1"/>
+    </row>
+    <row r="195" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K195" s="1"/>
+    </row>
+    <row r="196" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K196" s="1"/>
+    </row>
+    <row r="197" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K197" s="1"/>
+    </row>
+    <row r="198" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K198" s="1"/>
+    </row>
+    <row r="199" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K199" s="1"/>
+    </row>
+    <row r="200" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K200" s="1"/>
+    </row>
+    <row r="201" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K201" s="1"/>
+    </row>
+    <row r="202" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K202" s="1"/>
+    </row>
+    <row r="203" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K203" s="1"/>
+    </row>
+    <row r="204" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K204" s="1"/>
+    </row>
+    <row r="205" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K205" s="1"/>
+    </row>
+    <row r="206" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K206" s="1"/>
+    </row>
+    <row r="207" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K207" s="1"/>
+    </row>
+    <row r="208" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K208" s="1"/>
+    </row>
+    <row r="209" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K209" s="1"/>
+    </row>
+    <row r="210" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K210" s="1"/>
+    </row>
+    <row r="211" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K211" s="1"/>
+    </row>
+    <row r="212" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K212" s="1"/>
+    </row>
+    <row r="213" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K213" s="1"/>
+    </row>
+    <row r="214" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K214" s="1"/>
+    </row>
+    <row r="215" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K215" s="1"/>
+    </row>
+    <row r="216" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K216" s="1"/>
+    </row>
+    <row r="217" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K217" s="1"/>
+    </row>
+    <row r="218" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K218" s="1"/>
+    </row>
+    <row r="219" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K219" s="1"/>
+    </row>
+    <row r="220" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K220" s="1"/>
+    </row>
+    <row r="221" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K221" s="1"/>
+    </row>
+    <row r="222" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K222" s="1"/>
+    </row>
+    <row r="223" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K223" s="1"/>
+    </row>
+    <row r="224" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K224" s="1"/>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K225" s="1"/>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K226" s="1"/>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K227" s="1"/>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K228" s="1"/>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K229" s="1"/>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K230" s="1"/>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K231" s="1"/>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K232" s="1"/>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K233" s="1"/>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K234" s="1"/>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K235" s="1"/>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K236" s="1"/>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K237" s="1"/>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K238" s="1"/>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K239" s="1"/>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K240" s="1"/>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K254" s="1"/>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K258" s="1"/>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K259" s="1"/>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K260" s="1"/>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K261" s="1"/>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K262" s="1"/>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K263" s="1"/>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K266" s="1"/>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K267" s="1"/>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K268" s="1"/>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K269" s="1"/>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K270" s="1"/>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K271" s="1"/>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K272" s="1"/>
+    </row>
+    <row r="273" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K273" s="1"/>
+    </row>
+    <row r="274" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K274" s="1"/>
+    </row>
+    <row r="275" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K275" s="1"/>
+    </row>
+    <row r="276" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K276" s="1"/>
+    </row>
+    <row r="277" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K277" s="1"/>
+    </row>
+    <row r="278" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="K278" s="1"/>
+    </row>
+    <row r="279" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E279" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E280" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="281" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E281" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="A1:K2"/>
     <mergeCell ref="E3:F4"/>
-    <mergeCell ref="G3:J4"/>
+    <mergeCell ref="G3:K4"/>
     <mergeCell ref="A3:D4"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G5:K5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
@@ -8344,11 +8569,11 @@
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G7:G8 G13:G282</xm:sqref>
+          <xm:sqref>G7:G8 G13:G281</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'[Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx]Datos'!#REF!</xm:f>
+            <xm:f>'C:\Users\INAP-QA\Documents\GITHUB\All-documents-\SIEDNL (PDR)\ENTREGABLES\Matriz de Pruebas\Matris para Usuarios\[Matiz de Pruebas SIEDNL - Ficha Técnica.xlsx]Datos'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G9:G12</xm:sqref>
         </x14:dataValidation>
